--- a/validate/AUC_mesh_2022_completed.xlsx
+++ b/validate/AUC_mesh_2022_completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Research\Projects\ihbi\aushsi\aushsi_barnetta\meta.research\text.mining\AUC\validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF443C63-CB81-4581-9462-8F6C1A27CAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1B4571-144B-424E-9A5B-8E01D6814247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,9 +674,6 @@
     <t>0.92,0.33,0.73</t>
   </si>
   <si>
-    <t>0.9625,0.9443.0.9807</t>
-  </si>
-  <si>
     <t>0.876,0.869,0.883,0.854,0.850,0.861,0.916,0.907,0.926,0.900,0.889,0.909,0.860,0.838,0.882,0.842,0.820,0.865,0.879,0.840,0.918,0.873,0.836,0.910</t>
   </si>
   <si>
@@ -707,9 +704,6 @@
     <t>0.82,0.90,0.81,0.90</t>
   </si>
   <si>
-    <t>0.76,0.69,0.84,0.96,0.94,0.98,0.61,0.53,0.69,0.74,0.65,0.81,0.64,0.55,0.73,0.74,0.62,0.85,0.68,0.59,0.77</t>
-  </si>
-  <si>
     <t>0.852,0.741,0.718</t>
   </si>
   <si>
@@ -728,9 +722,6 @@
     <t>301,42</t>
   </si>
   <si>
-    <t>0.982,0.940</t>
-  </si>
-  <si>
     <t>0.68,0.70</t>
   </si>
   <si>
@@ -761,18 +752,12 @@
     <t>0.950,0.931,0.968,0.868,0.834,0.902,0.809,0.768,0.850,0.882,0.847,0.917,0.883,0.849,0.918,0.917,0.854,0.811,0.873,0.772,0.785,0.858,0.805,0.912</t>
   </si>
   <si>
-    <t>0.666,0.560</t>
-  </si>
-  <si>
     <t>0.798,0.731,0.865,0.816,0.725,0.906</t>
   </si>
   <si>
     <t>0.81,0.83,0.77,0.81,0.82</t>
   </si>
   <si>
-    <t>0.70,0.62,0.78,0.80,0.74,0.86,0.73,0.65,0.80,0.77,0.70,0.84</t>
-  </si>
-  <si>
     <t>0.81,0.79,0.74</t>
   </si>
   <si>
@@ -815,9 +800,6 @@
     <t>0.746,0.710,0.732</t>
   </si>
   <si>
-    <t>0.983,0.977</t>
-  </si>
-  <si>
     <t>0.721,0.994</t>
   </si>
   <si>
@@ -831,6 +813,24 @@
   </si>
   <si>
     <t>0.67,0.77,0.75</t>
+  </si>
+  <si>
+    <t>0.9625,0.9443,0.9807</t>
+  </si>
+  <si>
+    <t>0.982,0.940,0.958,0.931</t>
+  </si>
+  <si>
+    <t>0.70,0.62,0.78,0.80,0.74,0.86,0.73,0.65,0.80,0.77,0.70,0.84,0.70,0.62,0.78,0.80,0.74,0.86,0.73,0.65,0.80,0.77,0.70,0.84</t>
+  </si>
+  <si>
+    <t>0.76,0.69,0.84,0.96,0.94,0.98,0.61,0.53,0.69,0.74,0.65,0.81,0.64,0.55,0.73,0.72,0.69,0.75,0.60,0.51,0.69,0.79,0.76,0.82,0.65,0.56,0.75,0.84,0.79,0.90,0.68,0.59,0.77</t>
+  </si>
+  <si>
+    <t>0.983,0.977,0.855,0.795</t>
+  </si>
+  <si>
+    <t>0.666,0.560,0.631,0.580,0.652</t>
   </si>
 </sst>
 </file>
@@ -1204,12 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="10965" ySplit="1200" topLeftCell="A27" activePane="bottomRight"/>
-      <selection activeCell="L4" sqref="L4"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1457,7 @@
         <v>1202355</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -1483,10 +1479,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -1508,7 +1504,7 @@
         <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -1530,7 +1526,7 @@
         <v>2031</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -1560,7 +1556,7 @@
         <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1579,7 +1575,7 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -1590,7 +1586,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1604,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -1618,7 +1614,7 @@
         <v>87034914</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -1632,7 +1628,7 @@
         <v>378</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -1657,7 +1653,7 @@
         <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1671,7 +1667,7 @@
         <v>1237</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1685,7 +1681,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1699,7 +1695,7 @@
         <v>2167</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -1713,7 +1709,7 @@
         <v>32463</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1741,7 +1737,7 @@
         <v>716</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -1760,10 +1756,10 @@
         <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -1777,7 +1773,7 @@
         <v>393107</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -1791,7 +1787,7 @@
         <v>50221</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -1816,7 +1812,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -1827,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -1841,7 +1837,7 @@
         <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1855,7 +1851,7 @@
         <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -1869,7 +1865,7 @@
         <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -1891,7 +1887,7 @@
         <v>1900</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -1943,7 +1939,7 @@
         <v>115832</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -2009,7 +2005,7 @@
         <v>2463</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -2031,7 +2027,7 @@
         <v>474</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2045,7 +2041,7 @@
         <v>259</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2067,7 +2063,7 @@
         <v>2639</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="360" x14ac:dyDescent="0.25">
@@ -2081,7 +2077,7 @@
         <v>587</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2095,7 +2091,7 @@
         <v>4517</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2106,7 +2102,7 @@
         <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2117,7 +2113,7 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2139,7 +2135,7 @@
         <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -2164,7 +2160,7 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -2178,7 +2174,7 @@
         <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -2222,7 +2218,7 @@
         <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2236,7 +2232,7 @@
         <v>318</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2250,7 +2246,7 @@
         <v>172423</v>
       </c>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -2278,7 +2274,7 @@
         <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2292,7 +2288,7 @@
         <v>297</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -2306,7 +2302,7 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -2328,7 +2324,7 @@
         <v>10689</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2342,7 +2338,7 @@
         <v>1266</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -2353,7 +2349,7 @@
         <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2367,7 +2363,7 @@
         <v>1080</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -2381,7 +2377,7 @@
         <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -2403,7 +2399,7 @@
         <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -2417,7 +2413,7 @@
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -2445,7 +2441,7 @@
         <v>1232</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
